--- a/diary/2017-3-11(L).xlsx
+++ b/diary/2017-3-11(L).xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -617,16 +617,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="1">
-        <f>SUM(B2:B7)</f>
-        <v>213.1</v>
+        <f>SUM(B2:B13)</f>
+        <v>232.7</v>
       </c>
       <c r="C15" s="1">
-        <f>SUM(C2:C9)</f>
+        <f>SUM(C2:C13)</f>
         <v>94.199999999999989</v>
       </c>
       <c r="D15" s="1">
-        <f>SUM(D2:D7)</f>
-        <v>67.8</v>
+        <f>SUM(D2:D13)</f>
+        <v>77.3</v>
       </c>
     </row>
   </sheetData>
